--- a/samples/loadAllSheetsSample/sample1.xlsx
+++ b/samples/loadAllSheetsSample/sample1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/y0c07xo/Desktop/Yuan/myProject/python/ExcelHelper/samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuan/Desktop/yuan/project/python/ExcelHelper/samples/loadAllSheetsSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0C6DDD-8DCF-2F49-897B-818A65C9D392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF84EF-A92D-AE43-93F8-1A7DCAEC25D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55340" yWindow="4620" windowWidth="25720" windowHeight="16440" xr2:uid="{20602420-4608-C04F-AEF9-E563FE04CFCA}"/>
+    <workbookView xWindow="5680" yWindow="2600" windowWidth="25720" windowHeight="16440" xr2:uid="{20602420-4608-C04F-AEF9-E563FE04CFCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
